--- a/scenarios_and_results/Scenario_low_discount_C.xlsx
+++ b/scenarios_and_results/Scenario_low_discount_C.xlsx
@@ -696,55 +696,55 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>5841.531976220536</v>
+        <v>5841.531976220571</v>
       </c>
       <c r="C3">
-        <v>2.189873507245554</v>
+        <v>2.189873507245568</v>
       </c>
       <c r="D3">
-        <v>6.821846147496181</v>
+        <v>6.821846147496222</v>
       </c>
       <c r="E3">
-        <v>6.821846147496181</v>
+        <v>6.821846147496222</v>
       </c>
       <c r="F3">
-        <v>0.1374629485897232</v>
+        <v>0.137462948589724</v>
       </c>
       <c r="G3">
-        <v>6.821846147496182E-05</v>
+        <v>6.821846147496222E-05</v>
       </c>
       <c r="H3">
-        <v>0.1375311670511981</v>
+        <v>0.137531167051199</v>
       </c>
       <c r="I3">
-        <v>6.821846147496182E-05</v>
+        <v>6.821846147496222E-05</v>
       </c>
       <c r="J3">
-        <v>6.821846147496181</v>
+        <v>6.821846147496222</v>
       </c>
       <c r="K3">
-        <v>0.1375311670511981</v>
+        <v>0.137531167051199</v>
       </c>
       <c r="L3">
-        <v>0.529975329229645</v>
+        <v>0.5299753292296451</v>
       </c>
       <c r="M3">
         <v>20.16040292871104</v>
       </c>
       <c r="N3">
-        <v>0.1333125562586253</v>
+        <v>0.1333125562586254</v>
       </c>
       <c r="O3">
-        <v>0.1333125562586253</v>
+        <v>0.1333125562586254</v>
       </c>
       <c r="P3">
-        <v>0.137531167051002</v>
+        <v>0.1375311670510034</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>20.16040292868229</v>
+        <v>20.16040292868238</v>
       </c>
       <c r="S3">
         <v>20.16040292871104</v>
@@ -759,10 +759,10 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>2.792804961011784</v>
+        <v>2.792098581118029</v>
       </c>
       <c r="X3">
-        <v>4.029041186484398</v>
+        <v>4.029747566378194</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -773,61 +773,61 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>2558.528946316902</v>
+        <v>2558.528946316921</v>
       </c>
       <c r="C4">
-        <v>2.464042472329419</v>
+        <v>2.464042472329437</v>
       </c>
       <c r="D4">
-        <v>6.050160852173398</v>
+        <v>6.050160852173435</v>
       </c>
       <c r="E4">
-        <v>6.050160852173398</v>
+        <v>6.050160852173435</v>
       </c>
       <c r="F4">
-        <v>0.1580610256762637</v>
+        <v>0.1580610256762648</v>
       </c>
       <c r="G4">
-        <v>0.007381196239651545</v>
+        <v>0.00738119623965159</v>
       </c>
       <c r="H4">
-        <v>0.1654422219159152</v>
+        <v>0.1654422219159164</v>
       </c>
       <c r="I4">
-        <v>0.007381196239651545</v>
+        <v>0.00738119623965159</v>
       </c>
       <c r="J4">
-        <v>6.050160852173398</v>
+        <v>6.050160852173435</v>
       </c>
       <c r="K4">
-        <v>0.1654422219159152</v>
+        <v>0.1654422219159164</v>
       </c>
       <c r="L4">
-        <v>0.4700246707703548</v>
+        <v>0.4700246707703549</v>
       </c>
       <c r="M4">
-        <v>27.34509477652705</v>
+        <v>27.34509477652707</v>
       </c>
       <c r="N4">
-        <v>0.2699432549007784</v>
+        <v>0.2699432549007781</v>
       </c>
       <c r="O4">
-        <v>0.2699432549007784</v>
+        <v>0.2699432549007781</v>
       </c>
       <c r="P4">
-        <v>0.1654422219157944</v>
+        <v>0.1654422219157962</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>27.34509477650708</v>
+        <v>27.34509477650721</v>
       </c>
       <c r="S4">
-        <v>27.34509477652705</v>
+        <v>27.34509477652707</v>
       </c>
       <c r="T4">
-        <v>26.12509477652705</v>
+        <v>26.12509477652707</v>
       </c>
       <c r="U4">
         <v>1.22</v>
@@ -836,10 +836,10 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>4.17861109512827</v>
+        <v>4.179317475022035</v>
       </c>
       <c r="X4">
-        <v>1.871549757045127</v>
+        <v>1.870843377151399</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -912,10 +912,10 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>324.897106699025</v>
+        <v>324.8971066990247</v>
       </c>
       <c r="C6">
-        <v>0.1338056244229265</v>
+        <v>0.1338056244229263</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -924,64 +924,64 @@
         <v>0.1886387221047829</v>
       </c>
       <c r="F6">
-        <v>0.01026492044283417</v>
+        <v>0.01026492044283415</v>
       </c>
       <c r="G6">
-        <v>0.0008488742494715229</v>
+        <v>0.0008488742494715231</v>
       </c>
       <c r="H6">
-        <v>0.01111379469230569</v>
+        <v>0.01111379469230568</v>
       </c>
       <c r="I6">
-        <v>5.849869921803474E-17</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1.257722033187747E-15</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.01026492044283422</v>
+        <v>0.01026492044283415</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>8161517546780485</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>4.419109053433813E-16</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0662797551990562</v>
+        <v>0.06627975519905629</v>
       </c>
       <c r="P6">
-        <v>0.03498575891483933</v>
+        <v>0.03498575891483958</v>
       </c>
       <c r="Q6">
-        <v>0.02387196422252743</v>
+        <v>0.0238719642225277</v>
       </c>
       <c r="R6">
-        <v>185.4643549557437</v>
+        <v>185.4643549557449</v>
       </c>
       <c r="S6">
-        <v>185.4643549557107</v>
+        <v>185.464354955712</v>
       </c>
       <c r="T6">
-        <v>54.41576537574468</v>
+        <v>54.41576537574459</v>
       </c>
       <c r="U6">
-        <v>4.5</v>
+        <v>4.499999999999999</v>
       </c>
       <c r="V6">
-        <v>126.548589579966</v>
+        <v>126.5485895799674</v>
       </c>
       <c r="W6">
-        <v>0.1886387221047828</v>
+        <v>0.1886387221047829</v>
       </c>
       <c r="X6">
-        <v>2.322405420528877E-17</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.1886387221047816</v>
+        <v>0.1886387221047829</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1312,76 +1312,76 @@
         <v>52</v>
       </c>
       <c r="B4">
-        <v>2.04596575672185</v>
+        <v>2.045965756721829</v>
       </c>
       <c r="C4">
-        <v>0.9939848772366149</v>
+        <v>0.9939848772366146</v>
       </c>
       <c r="D4">
-        <v>0.9939848772370261</v>
+        <v>0.9939848772370257</v>
       </c>
       <c r="E4">
-        <v>87.973625462247</v>
+        <v>87.97362546224667</v>
       </c>
       <c r="F4">
-        <v>18.18664643350893</v>
+        <v>18.18664643350882</v>
       </c>
       <c r="G4">
-        <v>18.29670335031882</v>
+        <v>18.29670335031871</v>
       </c>
       <c r="H4">
-        <v>1.599945221755825</v>
+        <v>1.599945221755809</v>
       </c>
       <c r="I4">
-        <v>1.599945221755825</v>
+        <v>1.599945221755809</v>
       </c>
       <c r="J4">
-        <v>0.08676880565833536</v>
+        <v>0.08676880565833511</v>
       </c>
       <c r="K4">
-        <v>0.001599945221755825</v>
+        <v>0.001599945221755809</v>
       </c>
       <c r="L4">
-        <v>0.08836875088009119</v>
+        <v>0.08836875088009093</v>
       </c>
       <c r="M4">
-        <v>0.04361640575636708</v>
+        <v>0.04361640575636574</v>
       </c>
       <c r="N4">
-        <v>0.1319851566364777</v>
+        <v>0.1319851566364774</v>
       </c>
       <c r="O4">
-        <v>1.599945221755825</v>
+        <v>1.599945221755809</v>
       </c>
       <c r="P4">
-        <v>82.49354718008036</v>
+        <v>82.49354718008016</v>
       </c>
       <c r="Q4">
-        <v>0.234971114887497</v>
+        <v>0.2349711148874948</v>
       </c>
       <c r="R4">
-        <v>0.1837474118418707</v>
+        <v>0.183747411841869</v>
       </c>
       <c r="S4">
-        <v>2.022634925282562</v>
+        <v>2.022634925282556</v>
       </c>
       <c r="T4">
         <v>1.056923999663237</v>
       </c>
       <c r="U4">
-        <v>0.9657109256193244</v>
+        <v>0.9657109256193184</v>
       </c>
       <c r="V4">
-        <v>82.49354718009248</v>
+        <v>82.49354718009315</v>
       </c>
       <c r="W4">
-        <v>54.23236025737983</v>
+        <v>54.23236025738021</v>
       </c>
       <c r="X4">
         <v>0.9999999999999998</v>
       </c>
       <c r="Y4">
-        <v>27.26118692270052</v>
+        <v>27.26118692269996</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1389,13 +1389,13 @@
         <v>53</v>
       </c>
       <c r="B5">
-        <v>3.719500761734884</v>
+        <v>3.719500761734966</v>
       </c>
       <c r="C5">
-        <v>1.190299266234253</v>
+        <v>1.190299266234272</v>
       </c>
       <c r="D5">
-        <v>0.8808214570133472</v>
+        <v>0.8808214570133611</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1413,52 +1413,52 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04470659845205172</v>
+        <v>0.04470659845205242</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.04470659845205172</v>
+        <v>0.04470659845205242</v>
       </c>
       <c r="M5">
-        <v>0.04124640880604354</v>
+        <v>0.04124640880604555</v>
       </c>
       <c r="N5">
-        <v>0.08595300725806247</v>
+        <v>0.08595300725806723</v>
       </c>
       <c r="O5">
-        <v>2.752430563683815</v>
+        <v>2.752430563683875</v>
       </c>
       <c r="P5">
-        <v>31.22803837167719</v>
+        <v>31.2280383716775</v>
       </c>
       <c r="Q5">
-        <v>0.3567174706579038</v>
+        <v>0.356717470657906</v>
       </c>
       <c r="R5">
-        <v>0.3567174706579039</v>
+        <v>0.356717470657906</v>
       </c>
       <c r="S5">
-        <v>0.5356346698054139</v>
+        <v>0.5356346698054223</v>
       </c>
       <c r="T5">
-        <v>0.5356346698054139</v>
+        <v>0.5356346698054223</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>31.22803837166528</v>
+        <v>31.22803837166633</v>
       </c>
       <c r="W5">
-        <v>16.24258902001765</v>
+        <v>16.24258902001755</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>14.98544935165955</v>
+        <v>14.98544935165995</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1466,22 +1466,22 @@
         <v>54</v>
       </c>
       <c r="B6">
-        <v>0.06508613667053008</v>
+        <v>0.06508613667053072</v>
       </c>
       <c r="C6">
-        <v>0.6042172229857656</v>
+        <v>0.6042172229857772</v>
       </c>
       <c r="D6">
-        <v>0.3386807800919392</v>
+        <v>0.3386807800919464</v>
       </c>
       <c r="E6">
-        <v>33.34197650698073</v>
+        <v>33.34197650698177</v>
       </c>
       <c r="F6">
-        <v>39.04155871317536</v>
+        <v>39.0415587131741</v>
       </c>
       <c r="G6">
-        <v>115.2753891218067</v>
+        <v>115.2753891218006</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1490,52 +1490,52 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01018028141943025</v>
+        <v>0.01018028141942994</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.01018028141943025</v>
+        <v>0.01018028141942994</v>
       </c>
       <c r="M6">
-        <v>0.04625889199155779</v>
+        <v>0.04625889199155974</v>
       </c>
       <c r="N6">
-        <v>0.05643917341098918</v>
+        <v>0.05643917341098885</v>
       </c>
       <c r="O6">
-        <v>1.301722733410601</v>
+        <v>1.3017227334106</v>
       </c>
       <c r="P6">
-        <v>43.35729258035894</v>
+        <v>43.35729258036026</v>
       </c>
       <c r="Q6">
-        <v>0.2582323109817889</v>
+        <v>0.2582323109817866</v>
       </c>
       <c r="R6">
-        <v>0.4387567712251532</v>
+        <v>0.4387567712251436</v>
       </c>
       <c r="S6">
-        <v>0.1089789027928584</v>
+        <v>0.1089789027928551</v>
       </c>
       <c r="T6">
-        <v>0.003566694267284975</v>
+        <v>0.003566694267285043</v>
       </c>
       <c r="U6">
-        <v>0.1054122085255735</v>
+        <v>0.1054122085255701</v>
       </c>
       <c r="V6">
-        <v>43.35729258035982</v>
+        <v>43.35729258035961</v>
       </c>
       <c r="W6">
-        <v>7.82062197896569</v>
+        <v>7.820621978965466</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>35.53667060139325</v>
+        <v>35.53667060139479</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1546,19 +1546,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.08868078009193925</v>
+        <v>0.08868078009194635</v>
       </c>
       <c r="D7">
-        <v>0.7555746667419186</v>
+        <v>0.7555746667419179</v>
       </c>
       <c r="E7">
-        <v>3.332364813444463</v>
+        <v>3.332559850450805</v>
       </c>
       <c r="F7">
-        <v>131.6466614937659</v>
+        <v>131.638956914742</v>
       </c>
       <c r="G7">
-        <v>174.2338213395029</v>
+        <v>174.2236243604842</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1567,52 +1567,52 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.003273175796856106</v>
+        <v>0.003273175796856291</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.003273175796856106</v>
+        <v>0.003273175796856291</v>
       </c>
       <c r="M7">
-        <v>0.02059878842697525</v>
+        <v>0.02059878842697721</v>
       </c>
       <c r="N7">
-        <v>0.02387196422252727</v>
+        <v>0.02387196422252932</v>
       </c>
       <c r="O7">
-        <v>0.4386947025692596</v>
+        <v>0.4386947025692924</v>
       </c>
       <c r="P7">
-        <v>54.41589352235804</v>
+        <v>54.41589352235886</v>
       </c>
       <c r="Q7">
-        <v>0.7239945586907025</v>
+        <v>0.7239945586907063</v>
       </c>
       <c r="R7">
-        <v>0.06627975519905577</v>
+        <v>0.06627975519906079</v>
       </c>
       <c r="S7">
-        <v>0.03324211708721671</v>
+        <v>0.03324211708721938</v>
       </c>
       <c r="T7">
-        <v>0.03324211708721671</v>
+        <v>0.03324211708721938</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>54.41589351938538</v>
+        <v>54.41589351938599</v>
       </c>
       <c r="W7">
-        <v>7.461170097761435</v>
+        <v>7.461170097761299</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>46.95472342459661</v>
+        <v>46.95472342459755</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1620,13 +1620,13 @@
         <v>56</v>
       </c>
       <c r="B8">
-        <v>0.02432138996737307</v>
+        <v>0.02432138996737514</v>
       </c>
       <c r="C8">
-        <v>0.003791675585240635</v>
+        <v>0.003791675585240942</v>
       </c>
       <c r="D8">
-        <v>0.01354169851871655</v>
+        <v>0.01354169851871765</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1644,52 +1644,52 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.006389770768589031</v>
+        <v>0.00638977076858955</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.006389770768589031</v>
+        <v>0.00638977076858955</v>
       </c>
       <c r="M8">
-        <v>0.002516714128829168</v>
+        <v>0.00251671412882936</v>
       </c>
       <c r="N8">
-        <v>0.00890648489741681</v>
+        <v>0.008906484897417367</v>
       </c>
       <c r="O8">
-        <v>0.08686210702633235</v>
+        <v>0.08686210702633977</v>
       </c>
       <c r="P8">
-        <v>102.5359066493539</v>
+        <v>102.5359066493533</v>
       </c>
       <c r="Q8">
-        <v>0.7322394327838851</v>
+        <v>0.7322394327838883</v>
       </c>
       <c r="R8">
-        <v>0.7322394327838849</v>
+        <v>0.7322394327838881</v>
       </c>
       <c r="S8">
-        <v>0.01516670234096254</v>
+        <v>0.01516670234096377</v>
       </c>
       <c r="T8">
-        <v>0.01516670234096254</v>
+        <v>0.01516670234096377</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>102.5359066493379</v>
+        <v>102.5359066493355</v>
       </c>
       <c r="W8">
-        <v>73.56223544809896</v>
+        <v>73.56223544809865</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>28.97367120125492</v>
+        <v>28.97367120125465</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1697,13 +1697,13 @@
         <v>57</v>
       </c>
       <c r="B9">
-        <v>0.04571689843488739</v>
+        <v>0.04571689843489129</v>
       </c>
       <c r="C9">
-        <v>0.007127209746689122</v>
+        <v>0.007127209746689699</v>
       </c>
       <c r="D9">
-        <v>0.020312547778064</v>
+        <v>0.02031254777806564</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1721,52 +1721,52 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0009877038296885337</v>
       </c>
       <c r="K9">
-        <v>0.0004065146608830187</v>
+        <v>0.0004065146608830534</v>
       </c>
       <c r="L9">
-        <v>0.0004065146608830187</v>
+        <v>0.001394218490571587</v>
       </c>
       <c r="M9">
-        <v>0.0007326995027783392</v>
+        <v>0.0007326995027783967</v>
       </c>
       <c r="N9">
-        <v>0.002126917993349749</v>
+        <v>0.002126917993349911</v>
       </c>
       <c r="O9">
-        <v>0.1302931605394291</v>
+        <v>0.1302931605394402</v>
       </c>
       <c r="P9">
-        <v>8.74346864367152</v>
+        <v>16.32409548240377</v>
       </c>
       <c r="Q9">
-        <v>0.7322394327838849</v>
+        <v>0.7322394327838881</v>
       </c>
       <c r="R9">
-        <v>0.7322394327838851</v>
+        <v>0.7322394327838879</v>
       </c>
       <c r="S9">
-        <v>0.0142187834446448</v>
+        <v>0.01421878344464595</v>
       </c>
       <c r="T9">
-        <v>0.0142187834446448</v>
+        <v>0.01421878344464595</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>16.32409548240335</v>
+        <v>16.32409548240321</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>7.580626838732281</v>
       </c>
       <c r="X9">
-        <v>3.119999999999999</v>
+        <v>3.120000000000001</v>
       </c>
       <c r="Y9">
-        <v>5.623468643671522</v>
+        <v>5.623468643671487</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1777,19 +1777,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.009432924969286166</v>
+        <v>0.009432924969287064</v>
       </c>
       <c r="D10">
-        <v>0.01369591183145268</v>
+        <v>0.01369591183145378</v>
       </c>
       <c r="E10">
-        <v>31.92241086089652</v>
+        <v>31.86494182893753</v>
       </c>
       <c r="F10">
-        <v>0.3344886753129068</v>
+        <v>0.3344886753129329</v>
       </c>
       <c r="G10">
-        <v>24.42251961236733</v>
+        <v>24.42251961236728</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1798,52 +1798,52 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.810858237663036E-05</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.810858237663036E-05</v>
       </c>
       <c r="M10">
-        <v>0.0006546429921575356</v>
+        <v>0.0006535677132571256</v>
       </c>
       <c r="N10">
-        <v>0.0007127515745342676</v>
+        <v>0.0007116762956338646</v>
       </c>
       <c r="O10">
-        <v>0.01067768492165562</v>
+        <v>0.01065846218128498</v>
       </c>
       <c r="P10">
-        <v>61.3094502189179</v>
+        <v>66.77101100788977</v>
       </c>
       <c r="Q10">
-        <v>0.1292190712648282</v>
+        <v>0.1289864417504514</v>
       </c>
       <c r="R10">
-        <v>0.08899836818770469</v>
+        <v>0.0888381468908869</v>
       </c>
       <c r="S10">
-        <v>0.0008456442342658316</v>
+        <v>0.0008456442342658976</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.0008456442342658316</v>
+        <v>0.0008456442342658976</v>
       </c>
       <c r="V10">
-        <v>66.75150838069047</v>
+        <v>66.77101100789994</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>5.451873017728794</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>61.3094502189179</v>
+        <v>61.31913799016096</v>
       </c>
     </row>
   </sheetData>
